--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>563.5385240069184</v>
+        <v>223.1925203640471</v>
       </c>
       <c r="R2">
-        <v>5071.846716062266</v>
+        <v>2008.732683276424</v>
       </c>
       <c r="S2">
-        <v>0.1955845735081993</v>
+        <v>0.158014793281808</v>
       </c>
       <c r="T2">
-        <v>0.1955845735081993</v>
+        <v>0.158014793281808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H3">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>729.8595041354858</v>
+        <v>196.6454808916204</v>
       </c>
       <c r="R3">
-        <v>6568.735537219373</v>
+        <v>1769.809328024584</v>
       </c>
       <c r="S3">
-        <v>0.2533087868106287</v>
+        <v>0.1392201448427054</v>
       </c>
       <c r="T3">
-        <v>0.2533087868106287</v>
+        <v>0.1392201448427055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H4">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>207.4957063812766</v>
+        <v>62.04724323170333</v>
       </c>
       <c r="R4">
-        <v>1867.461357431489</v>
+        <v>558.42518908533</v>
       </c>
       <c r="S4">
-        <v>0.07201452519839852</v>
+        <v>0.04392791611910574</v>
       </c>
       <c r="T4">
-        <v>0.07201452519839852</v>
+        <v>0.04392791611910574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H5">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>457.8048098671595</v>
+        <v>82.491574302788</v>
       </c>
       <c r="R5">
-        <v>4120.243288804436</v>
+        <v>742.4241687250918</v>
       </c>
       <c r="S5">
-        <v>0.1588880878120258</v>
+        <v>0.05840199769994473</v>
       </c>
       <c r="T5">
-        <v>0.1588880878120259</v>
+        <v>0.05840199769994473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J6">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>18.74360377362356</v>
+        <v>27.55271618457156</v>
       </c>
       <c r="R6">
-        <v>168.692433962612</v>
+        <v>247.974445661144</v>
       </c>
       <c r="S6">
-        <v>0.006505251360643152</v>
+        <v>0.01950664271883333</v>
       </c>
       <c r="T6">
-        <v>0.006505251360643151</v>
+        <v>0.01950664271883333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
         <v>24.27553179267823</v>
@@ -883,10 +883,10 @@
         <v>218.479786134104</v>
       </c>
       <c r="S7">
-        <v>0.008425190701421181</v>
+        <v>0.01718647709058225</v>
       </c>
       <c r="T7">
-        <v>0.008425190701421181</v>
+        <v>0.01718647709058225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J8">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>6.901422244366445</v>
+        <v>7.659620851136668</v>
       </c>
       <c r="R8">
-        <v>62.11280019929801</v>
+        <v>68.93658766023002</v>
       </c>
       <c r="S8">
-        <v>0.002395243037985882</v>
+        <v>0.005422822428973981</v>
       </c>
       <c r="T8">
-        <v>0.002395243037985882</v>
+        <v>0.005422822428973982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J9">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>15.22684181517245</v>
+        <v>10.183436840428</v>
       </c>
       <c r="R9">
-        <v>137.041576336552</v>
+        <v>91.650931563852</v>
       </c>
       <c r="S9">
-        <v>0.005284705899291381</v>
+        <v>0.007209621830578983</v>
       </c>
       <c r="T9">
-        <v>0.00528470589929138</v>
+        <v>0.007209621830578983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H10">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>100.2341817678802</v>
+        <v>193.1150232387515</v>
       </c>
       <c r="R10">
-        <v>902.1076359109219</v>
+        <v>1738.035209148764</v>
       </c>
       <c r="S10">
-        <v>0.0347877897550328</v>
+        <v>0.1367206679995822</v>
       </c>
       <c r="T10">
-        <v>0.03478778975503279</v>
+        <v>0.1367206679995822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H11">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>129.8169816011249</v>
+        <v>170.1454714980582</v>
       </c>
       <c r="R11">
-        <v>1168.352834410124</v>
+        <v>1531.309243482524</v>
       </c>
       <c r="S11">
-        <v>0.04505494815162994</v>
+        <v>0.1204587925381583</v>
       </c>
       <c r="T11">
-        <v>0.04505494815162994</v>
+        <v>0.1204587925381583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H12">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>36.90637190443478</v>
+        <v>53.68573641736166</v>
       </c>
       <c r="R12">
-        <v>332.157347139913</v>
+        <v>483.171627756255</v>
       </c>
       <c r="S12">
-        <v>0.01280891492091719</v>
+        <v>0.03800817575935908</v>
       </c>
       <c r="T12">
-        <v>0.01280891492091719</v>
+        <v>0.03800817575935909</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H13">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>81.42777924064578</v>
+        <v>71.37498273911798</v>
       </c>
       <c r="R13">
-        <v>732.8500131658119</v>
+        <v>642.3748446520618</v>
       </c>
       <c r="S13">
-        <v>0.02826074313653487</v>
+        <v>0.05053172536704371</v>
       </c>
       <c r="T13">
-        <v>0.02826074313653487</v>
+        <v>0.05053172536704372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H14">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>146.4655410604136</v>
+        <v>114.7287133878071</v>
       </c>
       <c r="R14">
-        <v>1318.189869543722</v>
+        <v>1032.558420490264</v>
       </c>
       <c r="S14">
-        <v>0.05083308267598926</v>
+        <v>0.08122509616313474</v>
       </c>
       <c r="T14">
-        <v>0.05083308267598926</v>
+        <v>0.08122509616313477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H15">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>189.6929182608582</v>
+        <v>101.0826123537804</v>
       </c>
       <c r="R15">
-        <v>1707.236264347724</v>
+        <v>909.743511184024</v>
       </c>
       <c r="S15">
-        <v>0.06583579814877075</v>
+        <v>0.0715639935846196</v>
       </c>
       <c r="T15">
-        <v>0.06583579814877076</v>
+        <v>0.07156399358461961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H16">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>53.92882581790145</v>
+        <v>31.89443971340334</v>
       </c>
       <c r="R16">
-        <v>485.3594323611131</v>
+        <v>287.0499574206301</v>
       </c>
       <c r="S16">
-        <v>0.01871681517422354</v>
+        <v>0.0225804757701206</v>
       </c>
       <c r="T16">
-        <v>0.01871681517422354</v>
+        <v>0.02258047577012061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H17">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>118.9849962705125</v>
+        <v>42.403536505868</v>
       </c>
       <c r="R17">
-        <v>1070.864966434612</v>
+        <v>381.631828552812</v>
       </c>
       <c r="S17">
-        <v>0.04129554370830762</v>
+        <v>0.03002065680544938</v>
       </c>
       <c r="T17">
-        <v>0.04129554370830763</v>
+        <v>0.03002065680544938</v>
       </c>
     </row>
   </sheetData>
